--- a/data_year/zb/人民生活/全国居民人均收入情况.xlsx
+++ b/data_year/zb/人民生活/全国居民人均收入情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,850 +498,546 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2040</v>
+        <v>7320</v>
       </c>
       <c r="C2" t="n">
-        <v>7.3</v>
+        <v>12.9</v>
       </c>
       <c r="D2" t="n">
-        <v>3721</v>
+        <v>12519.5051368432</v>
       </c>
       <c r="E2" t="n">
-        <v>6.4</v>
+        <v>10.4</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>1019</v>
+        <v>2402</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7</v>
+        <v>11.5</v>
       </c>
       <c r="J2" t="n">
-        <v>84</v>
+        <v>778</v>
       </c>
       <c r="K2" t="n">
-        <v>18.1</v>
+        <v>32.2</v>
       </c>
       <c r="L2" t="n">
-        <v>578</v>
+        <v>2019</v>
       </c>
       <c r="M2" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2255</v>
+        <v>8313</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5</v>
+        <v>13.6</v>
       </c>
       <c r="D3" t="n">
-        <v>4070</v>
+        <v>14550.7487815862</v>
       </c>
       <c r="E3" t="n">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1038</v>
+        <v>2846</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9</v>
+        <v>18.5</v>
       </c>
       <c r="J3" t="n">
-        <v>94</v>
+        <v>1047</v>
       </c>
       <c r="K3" t="n">
-        <v>11.8</v>
+        <v>34.5</v>
       </c>
       <c r="L3" t="n">
-        <v>683</v>
+        <v>2344</v>
       </c>
       <c r="M3" t="n">
-        <v>18.1</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2698</v>
+        <v>9379</v>
       </c>
       <c r="C4" t="n">
-        <v>19.7</v>
+        <v>12.8</v>
       </c>
       <c r="D4" t="n">
-        <v>4532</v>
+        <v>16509.547528435</v>
       </c>
       <c r="E4" t="n">
-        <v>12.2</v>
+        <v>10.6</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1067</v>
+        <v>3172</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>11.5</v>
       </c>
       <c r="J4" t="n">
-        <v>84</v>
+        <v>1231</v>
       </c>
       <c r="K4" t="n">
-        <v>-10.9</v>
+        <v>17.5</v>
       </c>
       <c r="L4" t="n">
-        <v>683</v>
+        <v>2727</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.1</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3061</v>
+        <v>10411</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>5007</v>
+        <v>18310.757</v>
       </c>
       <c r="E5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>8.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15632</v>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1122</v>
+        <v>3435</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>119</v>
+        <v>1423</v>
       </c>
       <c r="K5" t="n">
-        <v>41.5</v>
+        <v>15.6</v>
       </c>
       <c r="L5" t="n">
-        <v>705</v>
+        <v>3042</v>
       </c>
       <c r="M5" t="n">
-        <v>3.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3452</v>
+        <v>11421</v>
       </c>
       <c r="C6" t="n">
-        <v>12.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>5661</v>
+        <v>20167.1236487158</v>
       </c>
       <c r="E6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17570</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.4</v>
+      </c>
       <c r="H6" t="n">
-        <v>1277</v>
+        <v>3732</v>
       </c>
       <c r="I6" t="n">
-        <v>13.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>151</v>
+        <v>1588</v>
       </c>
       <c r="K6" t="n">
-        <v>27.2</v>
+        <v>11.6</v>
       </c>
       <c r="L6" t="n">
-        <v>781</v>
+        <v>3427</v>
       </c>
       <c r="M6" t="n">
-        <v>10.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3859</v>
+        <v>12459.0481115354</v>
       </c>
       <c r="C7" t="n">
-        <v>11.8</v>
+        <v>9.1</v>
       </c>
       <c r="D7" t="n">
-        <v>6385</v>
+        <v>21966.1852468626</v>
       </c>
       <c r="E7" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>7.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19281</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="H7" t="n">
-        <v>1410</v>
+        <v>3955.6370946207</v>
       </c>
       <c r="I7" t="n">
-        <v>10.4</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>193</v>
+        <v>1739.5753148506</v>
       </c>
       <c r="K7" t="n">
-        <v>27.7</v>
+        <v>9.6</v>
       </c>
       <c r="L7" t="n">
-        <v>923</v>
+        <v>3811.9247258559</v>
       </c>
       <c r="M7" t="n">
-        <v>18.1</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4426</v>
+        <v>13455.184145</v>
       </c>
       <c r="C8" t="n">
-        <v>14.7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>7229</v>
+        <v>23820.975412</v>
       </c>
       <c r="E8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20883</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.300000000000001</v>
+      </c>
       <c r="H8" t="n">
-        <v>1511</v>
+        <v>4217.713849</v>
       </c>
       <c r="I8" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>260</v>
+        <v>1888.986723</v>
       </c>
       <c r="K8" t="n">
-        <v>34.7</v>
+        <v>8.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1032</v>
+        <v>4259.090695</v>
       </c>
       <c r="M8" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5222</v>
+        <v>14620.2765895914</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>8584</v>
+        <v>25973.7874873775</v>
       </c>
       <c r="E9" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22408</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.3</v>
+      </c>
       <c r="H9" t="n">
-        <v>1711</v>
+        <v>4501.8478313339</v>
       </c>
       <c r="I9" t="n">
-        <v>13.2</v>
+        <v>6.7</v>
       </c>
       <c r="J9" t="n">
-        <v>402</v>
+        <v>2107.3508413252</v>
       </c>
       <c r="K9" t="n">
-        <v>54.8</v>
+        <v>11.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1248</v>
+        <v>4744.3122251268</v>
       </c>
       <c r="M9" t="n">
-        <v>21</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5841</v>
+        <v>15829.0484831384</v>
       </c>
       <c r="C10" t="n">
-        <v>11.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>9957</v>
+        <v>28228.0485997323</v>
       </c>
       <c r="E10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24336</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.6</v>
+      </c>
       <c r="H10" t="n">
-        <v>2082</v>
+        <v>4852.430019795</v>
       </c>
       <c r="I10" t="n">
-        <v>21.7</v>
+        <v>7.8</v>
       </c>
       <c r="J10" t="n">
-        <v>484</v>
+        <v>2378.5195935495</v>
       </c>
       <c r="K10" t="n">
-        <v>20.5</v>
+        <v>12.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1550</v>
+        <v>5168.050503249</v>
       </c>
       <c r="M10" t="n">
-        <v>24.2</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6481</v>
+        <v>17186.2197946147</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="D11" t="n">
-        <v>10977</v>
+        <v>30732.8475578418</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>5.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26523</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
       <c r="H11" t="n">
-        <v>2154</v>
+        <v>5247.2775274924</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>8.1</v>
       </c>
       <c r="J11" t="n">
-        <v>589</v>
+        <v>2619.0594439373</v>
       </c>
       <c r="K11" t="n">
-        <v>21.6</v>
+        <v>10.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1754</v>
+        <v>5680.2907917973</v>
       </c>
       <c r="M11" t="n">
-        <v>13.2</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7320</v>
+        <v>17917.3707416228</v>
       </c>
       <c r="C12" t="n">
-        <v>12.9</v>
+        <v>4.3</v>
       </c>
       <c r="D12" t="n">
-        <v>12520</v>
+        <v>32188.8398923915</v>
       </c>
       <c r="E12" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+        <v>2.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>27540</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.8</v>
+      </c>
       <c r="H12" t="n">
-        <v>2402</v>
+        <v>5306.78595792026</v>
       </c>
       <c r="I12" t="n">
-        <v>11.5</v>
+        <v>1.1</v>
       </c>
       <c r="J12" t="n">
-        <v>778</v>
+        <v>2791.49736491419</v>
       </c>
       <c r="K12" t="n">
-        <v>32.2</v>
+        <v>6.6</v>
       </c>
       <c r="L12" t="n">
-        <v>2019</v>
+        <v>6173.18582793424</v>
       </c>
       <c r="M12" t="n">
-        <v>15.1</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8313</v>
+        <v>19629.4</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6</v>
+        <v>9.554913402557149</v>
       </c>
       <c r="D13" t="n">
-        <v>14551</v>
+        <v>35128.1</v>
       </c>
       <c r="E13" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>8.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29975</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="H13" t="n">
-        <v>2846</v>
+        <v>5892.7</v>
       </c>
       <c r="I13" t="n">
-        <v>18.5</v>
+        <v>11.0404686890623</v>
       </c>
       <c r="J13" t="n">
-        <v>1047</v>
+        <v>3075.5</v>
       </c>
       <c r="K13" t="n">
-        <v>34.5</v>
+        <v>10.1742039471544</v>
       </c>
       <c r="L13" t="n">
-        <v>2344</v>
+        <v>6530.5</v>
       </c>
       <c r="M13" t="n">
-        <v>16.1</v>
+        <v>5.78848882936254</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9379</v>
+        <v>20590.3056232283</v>
       </c>
       <c r="C14" t="n">
-        <v>12.8</v>
+        <v>4.89545060678658</v>
       </c>
       <c r="D14" t="n">
-        <v>16510</v>
+        <v>36883.2835519823</v>
       </c>
       <c r="E14" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+        <v>2.94117647058825</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31370</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.65418449346514</v>
+      </c>
       <c r="H14" t="n">
-        <v>3172</v>
+        <v>6174.50048494476</v>
       </c>
       <c r="I14" t="n">
-        <v>11.5</v>
+        <v>4.78255199577708</v>
       </c>
       <c r="J14" t="n">
-        <v>1231</v>
+        <v>3226.52820493384</v>
       </c>
       <c r="K14" t="n">
-        <v>17.5</v>
+        <v>4.91034673708866</v>
       </c>
       <c r="L14" t="n">
-        <v>2727</v>
+        <v>6891.94923887545</v>
       </c>
       <c r="M14" t="n">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10411</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>18311</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15632</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>3435</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1423</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3042</v>
-      </c>
-      <c r="M15" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>11421</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>20167</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>17570</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3732</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1588</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3427</v>
-      </c>
-      <c r="M16" t="n">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>12459</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>21966</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19281</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3956</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1740</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3812</v>
-      </c>
-      <c r="M17" t="n">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>13455</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>23821</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>20883</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4218</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1889</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4259</v>
-      </c>
-      <c r="M18" t="n">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>14620</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25974</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>22408</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4502</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2107</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4744</v>
-      </c>
-      <c r="M19" t="n">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>15829</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>28228</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>24336</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4852</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2379</v>
-      </c>
-      <c r="K20" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5168</v>
-      </c>
-      <c r="M20" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>17186</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>30733</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>26523</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5247</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2619</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5680</v>
-      </c>
-      <c r="M21" t="n">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>17917</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>32189</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>27540</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5307</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2791</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6173</v>
-      </c>
-      <c r="M22" t="n">
-        <v>8.699999999999999</v>
+        <v>5.53446339457571</v>
       </c>
     </row>
   </sheetData>
